--- a/Data_Analyst_ND_Project4/c_bank.xlsx
+++ b/Data_Analyst_ND_Project4/c_bank.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="920" windowWidth="21240" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="2860" yWindow="460" windowWidth="21240" windowHeight="14240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="140">
   <si>
     <t>EUR_978</t>
   </si>
@@ -417,7 +417,37 @@
     <t>dual_currency_basket</t>
   </si>
   <si>
-    <t>The dataset consists of 1128 observations and 20 variables. Some of them</t>
+    <t xml:space="preserve">This data was extracted from the open database of quotations of currencies and precious metals located on the site of the Bank of Russia. </t>
+  </si>
+  <si>
+    <t>The link http://www.cbr.ru/Eng/hd_base/ is avaliable for all internet users, the website is in Russian and in English.</t>
+  </si>
+  <si>
+    <t>From publicly available data the file in xlsx format has been generated and downloaded.</t>
+  </si>
+  <si>
+    <t>It consists of 1128 observations of  23 variables.</t>
+  </si>
+  <si>
+    <t>Variables that indicating exchange rates are measured in rubles, the prices of precious metals are denoted in rubles per gram, foreign exchange reserves and monetary gold reserves of Russia - in millions of US dollars for every month.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>centrobank</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>k_INR, k_CNY, k_JPY are coefficients for the currencies values.</t>
+  </si>
+  <si>
+    <t>The special variable "dual currency basket" is calculated according to the formula: 0.55 USD + 0.45 EUR</t>
   </si>
 </sst>
 </file>
@@ -478,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -499,6 +529,13 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -74192,18 +74229,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="161.83203125" customWidth="1"/>
+    <col min="1" max="1" width="166.83203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Analyst_ND_Project4/c_bank.xlsx
+++ b/Data_Analyst_ND_Project4/c_bank.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="141">
   <si>
     <t>EUR_978</t>
   </si>
@@ -449,6 +449,9 @@
   <si>
     <t>The special variable "dual currency basket" is calculated according to the formula: 0.55 USD + 0.45 EUR</t>
   </si>
+  <si>
+    <t>Foreign exchange reserves and monetary gold reserves consist of official datapoints for every month about the state reserves in Russia.</t>
+  </si>
 </sst>
 </file>
 
@@ -74229,10 +74232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -74295,6 +74298,11 @@
         <v>138</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
